--- a/artfynd/A 41031-2020.xlsx
+++ b/artfynd/A 41031-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY25"/>
+  <dimension ref="A1:AY27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3398,6 +3398,236 @@
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>111934989</v>
+      </c>
+      <c r="B26" t="n">
+        <v>77267</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Skumsåstjärnen (Skumsåstjärnen), Ång</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>584600.4316807063</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7048295.79915637</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>111935024</v>
+      </c>
+      <c r="B27" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Sollefteå (Sollefteå), Ång</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>584598.2684909205</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7048259.615628711</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>19:51</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>19:51</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 41031-2020.xlsx
+++ b/artfynd/A 41031-2020.xlsx
@@ -3400,10 +3400,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111934989</v>
+        <v>111935024</v>
       </c>
       <c r="B26" t="n">
-        <v>77267</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3412,42 +3412,46 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Skumsåstjärnen (Skumsåstjärnen), Ång</t>
+          <t>Sollefteå (Sollefteå), Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>584600.4316807063</v>
+        <v>584598.2684909205</v>
       </c>
       <c r="R26" t="n">
-        <v>7048295.79915637</v>
+        <v>7048259.615628711</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3476,7 +3480,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:51</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3486,7 +3490,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:51</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3501,22 +3505,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111935024</v>
+        <v>111934989</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>77267</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3525,46 +3529,42 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Sollefteå (Sollefteå), Ång</t>
+          <t>Skumsåstjärnen (Skumsåstjärnen), Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>584598.2684909205</v>
+        <v>584600.4316807063</v>
       </c>
       <c r="R27" t="n">
-        <v>7048259.615628711</v>
+        <v>7048295.79915637</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>19:51</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>19:51</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3618,12 +3618,12 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>

--- a/artfynd/A 41031-2020.xlsx
+++ b/artfynd/A 41031-2020.xlsx
@@ -3445,10 +3445,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>584598.2684909205</v>
+        <v>584598</v>
       </c>
       <c r="R26" t="n">
-        <v>7048259.615628711</v>
+        <v>7048260</v>
       </c>
       <c r="S26" t="n">
         <v>2</v>
@@ -3558,10 +3558,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>584600.4316807063</v>
+        <v>584600</v>
       </c>
       <c r="R27" t="n">
-        <v>7048295.79915637</v>
+        <v>7048296</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
@@ -3591,19 +3591,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 41031-2020.xlsx
+++ b/artfynd/A 41031-2020.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67898328</v>
+        <v>67892102</v>
       </c>
       <c r="B3" t="n">
-        <v>73693</v>
+        <v>77541</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,34 +808,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6440</v>
+        <v>185</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Naturskog SV Ladumyrberget, syd kraftledningen, Ång</t>
+          <t>Naturskog SV Ladumyrberget, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>584489.8304919918</v>
+        <v>584742.9303808049</v>
       </c>
       <c r="R3" t="n">
-        <v>7048424.423746439</v>
+        <v>7048428.485565316</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67892102</v>
+        <v>67892121</v>
       </c>
       <c r="B4" t="n">
-        <v>77541</v>
+        <v>77259</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>185</v>
+        <v>228912</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>584742.9303808049</v>
+        <v>584700.4782698094</v>
       </c>
       <c r="R4" t="n">
-        <v>7048428.485565316</v>
+        <v>7048463.032207629</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67892121</v>
+        <v>67892107</v>
       </c>
       <c r="B5" t="n">
-        <v>77259</v>
+        <v>76863</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228912</v>
+        <v>498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>584700.4782698094</v>
+        <v>584742.9303808049</v>
       </c>
       <c r="R5" t="n">
-        <v>7048463.032207629</v>
+        <v>7048428.485565316</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67892107</v>
+        <v>67892103</v>
       </c>
       <c r="B6" t="n">
-        <v>76863</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>498</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1174,7 +1174,7 @@
         <v>7048428.485565316</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67892103</v>
+        <v>67892123</v>
       </c>
       <c r="B7" t="n">
-        <v>77506</v>
+        <v>77258</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>584742.9303808049</v>
+        <v>584700.4782698094</v>
       </c>
       <c r="R7" t="n">
-        <v>7048428.485565316</v>
+        <v>7048463.032207629</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67892123</v>
+        <v>67892109</v>
       </c>
       <c r="B8" t="n">
-        <v>77258</v>
+        <v>78596</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6446</v>
+        <v>6462</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,13 +1392,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>584700.4782698094</v>
+        <v>584742.9303808049</v>
       </c>
       <c r="R8" t="n">
-        <v>7048463.032207629</v>
+        <v>7048428.485565316</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67892109</v>
+        <v>67892108</v>
       </c>
       <c r="B9" t="n">
-        <v>78596</v>
+        <v>78569</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67892108</v>
+        <v>67898328</v>
       </c>
       <c r="B10" t="n">
-        <v>78569</v>
+        <v>73693</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,37 +1592,37 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Naturskog SV Ladumyrberget, Ång</t>
+          <t>Naturskog SV Ladumyrberget, syd kraftledningen, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>584742.9303808049</v>
+        <v>584489.8304919918</v>
       </c>
       <c r="R10" t="n">
-        <v>7048428.485565316</v>
+        <v>7048424.423746439</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111935024</v>
+        <v>111934989</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>77388</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3412,46 +3412,42 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Sollefteå (Sollefteå), Ång</t>
+          <t>Skumsåstjärnen (Skumsåstjärnen), Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>584598</v>
+        <v>584600</v>
       </c>
       <c r="R26" t="n">
-        <v>7048260</v>
+        <v>7048296</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3478,19 +3474,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>19:51</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>19:51</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3505,22 +3491,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111934989</v>
+        <v>111935024</v>
       </c>
       <c r="B27" t="n">
-        <v>77267</v>
+        <v>96720</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3529,42 +3515,46 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Skumsåstjärnen (Skumsåstjärnen), Ång</t>
+          <t>Sollefteå (Sollefteå), Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>584600</v>
+        <v>584598</v>
       </c>
       <c r="R27" t="n">
-        <v>7048296</v>
+        <v>7048260</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3591,9 +3581,19 @@
           <t>2023-09-06</t>
         </is>
       </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>19:51</t>
+        </is>
+      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>19:51</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3608,12 +3608,12 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>

--- a/artfynd/A 41031-2020.xlsx
+++ b/artfynd/A 41031-2020.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67892102</v>
+        <v>67898328</v>
       </c>
       <c r="B3" t="n">
-        <v>77541</v>
+        <v>73693</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,34 +808,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>185</v>
+        <v>6440</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Naturskog SV Ladumyrberget, Ång</t>
+          <t>Naturskog SV Ladumyrberget, syd kraftledningen, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>584742.9303808049</v>
+        <v>584489.8304919918</v>
       </c>
       <c r="R3" t="n">
-        <v>7048428.485565316</v>
+        <v>7048424.423746439</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67892121</v>
+        <v>67892102</v>
       </c>
       <c r="B4" t="n">
-        <v>77259</v>
+        <v>77541</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228912</v>
+        <v>185</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>584700.4782698094</v>
+        <v>584742.9303808049</v>
       </c>
       <c r="R4" t="n">
-        <v>7048463.032207629</v>
+        <v>7048428.485565316</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67892107</v>
+        <v>67892121</v>
       </c>
       <c r="B5" t="n">
-        <v>76863</v>
+        <v>77259</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>498</v>
+        <v>228912</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>584742.9303808049</v>
+        <v>584700.4782698094</v>
       </c>
       <c r="R5" t="n">
-        <v>7048428.485565316</v>
+        <v>7048463.032207629</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67892103</v>
+        <v>67892107</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>76863</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1174,7 +1174,7 @@
         <v>7048428.485565316</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67892123</v>
+        <v>67892103</v>
       </c>
       <c r="B7" t="n">
-        <v>77258</v>
+        <v>77506</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>584700.4782698094</v>
+        <v>584742.9303808049</v>
       </c>
       <c r="R7" t="n">
-        <v>7048463.032207629</v>
+        <v>7048428.485565316</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67892109</v>
+        <v>67892123</v>
       </c>
       <c r="B8" t="n">
-        <v>78596</v>
+        <v>77258</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6462</v>
+        <v>6446</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,13 +1392,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>584742.9303808049</v>
+        <v>584700.4782698094</v>
       </c>
       <c r="R8" t="n">
-        <v>7048428.485565316</v>
+        <v>7048463.032207629</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67892108</v>
+        <v>67892109</v>
       </c>
       <c r="B9" t="n">
-        <v>78569</v>
+        <v>78596</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67898328</v>
+        <v>67892108</v>
       </c>
       <c r="B10" t="n">
-        <v>73693</v>
+        <v>78569</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,37 +1592,37 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Naturskog SV Ladumyrberget, syd kraftledningen, Ång</t>
+          <t>Naturskog SV Ladumyrberget, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>584489.8304919918</v>
+        <v>584742.9303808049</v>
       </c>
       <c r="R10" t="n">
-        <v>7048424.423746439</v>
+        <v>7048428.485565316</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111934989</v>
+        <v>111935024</v>
       </c>
       <c r="B26" t="n">
-        <v>77388</v>
+        <v>96735</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3412,42 +3412,46 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Skumsåstjärnen (Skumsåstjärnen), Ång</t>
+          <t>Sollefteå (Sollefteå), Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>584600</v>
+        <v>584598</v>
       </c>
       <c r="R26" t="n">
-        <v>7048296</v>
+        <v>7048260</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3474,9 +3478,19 @@
           <t>2023-09-06</t>
         </is>
       </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>19:51</t>
+        </is>
+      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>19:51</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3491,22 +3505,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111935024</v>
+        <v>111934989</v>
       </c>
       <c r="B27" t="n">
-        <v>96720</v>
+        <v>77402</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3515,46 +3529,42 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Sollefteå (Sollefteå), Ång</t>
+          <t>Skumsåstjärnen (Skumsåstjärnen), Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>584598</v>
+        <v>584600</v>
       </c>
       <c r="R27" t="n">
-        <v>7048260</v>
+        <v>7048296</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3581,19 +3591,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>19:51</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>19:51</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3608,12 +3608,12 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
